--- a/src/main/resources/static/paper.xlsx
+++ b/src/main/resources/static/paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxufeng/Documents/Code/active4j-oa/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D501C-15ED-144E-B080-D2E556669383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286AEA79-05A3-434B-BF6B-F53B76F121DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21000" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-                  年  月  日</t>
+             年  月  日</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -172,7 +172,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-                  年  月  日</t>
+             年  月  日</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -188,7 +188,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-                  年  月  日</t>
+             年  月  日</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -320,35 +320,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,291 +656,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:L6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="46" customHeight="1"/>
+  <cols>
+    <col min="1" max="12" width="7" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="46" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="46" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="51" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="84" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="46" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="10" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="37" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="37" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="46" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="J4:L5"/>
-    <mergeCell ref="A7:L8"/>
-    <mergeCell ref="A9:L16"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -952,13 +957,11 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="J4:L5"/>
+    <mergeCell ref="A7:L8"/>
+    <mergeCell ref="A9:L16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/paper.xlsx
+++ b/src/main/resources/static/paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxufeng/Documents/Code/active4j-oa/src/main/resources/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\WeChat Files\wxid_7n12q40vlvoq21\FileStorage\File\2021-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286AEA79-05A3-434B-BF6B-F53B76F121DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCBC3A1-B1D5-4CDC-BE36-D18CEB153F85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -65,6 +66,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>信息公开</t>
@@ -75,6 +77,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -86,6 +89,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>属 性 及</t>
@@ -96,6 +100,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -107,6 +112,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>原 因</t>
@@ -127,6 +133,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -146,17 +153,19 @@
   </si>
   <si>
     <r>
-      <t>科室负责人意见：</t>
+      <t xml:space="preserve">科室负责人意见：
+</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-             年  月  日</t>
+          年  月  日</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -169,26 +178,29 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-             年  月  日</t>
+          年  月  日</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>主要领导签发：</t>
+      <t xml:space="preserve">主要领导签发：
+</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-             年  月  日</t>
+          年  月  日</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -197,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +222,7 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -217,6 +230,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -225,6 +239,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -233,6 +248,7 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -247,6 +263,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,24 +272,18 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -316,9 +327,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -334,21 +357,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,296 +664,294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="46" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="46" customHeight="1"/>
   <cols>
     <col min="1" max="12" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="46" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="46" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="51" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="84" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="46" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="119" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="37" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="37" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="46" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="J4:L5"/>
+    <mergeCell ref="A7:L8"/>
+    <mergeCell ref="A9:L16"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -957,15 +963,17 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="J4:L5"/>
-    <mergeCell ref="A7:L8"/>
-    <mergeCell ref="A9:L16"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -975,7 +983,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -989,7 +997,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
